--- a/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_SLR_Import_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_SLR_Import_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LiveSLRPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D4AA68-49B6-4959-90C7-5651D8BF72A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C31EB8-31C9-405F-8070-A7B46468BC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Expected_Reported_vars</t>
   </si>
   <si>
-    <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_2-Clinical-2023_</t>
-  </si>
-  <si>
     <t>Population_name</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -560,22 +560,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
